--- a/RPG_Game/GameData4.xlsx
+++ b/RPG_Game/GameData4.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9b513f30dad44bc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra0a085cbb19547c3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,9 +10,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
-    <x:c r="B2" t="str">
-      <x:v>Hello, Excel!</x:v>
-    </x:c>
+    <x:row>
+      <x:c t="str">
+        <x:v>hi</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>why</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>